--- a/biology/Zoologie/Cretalamna/Cretalamna.xlsx
+++ b/biology/Zoologie/Cretalamna/Cretalamna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cretolamna
 Cretalamna est un genre fossile de requins lamniformes de la famille des Otodontidae. 
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'orthographe de Cretolamna est controversée, à l'origine Cretalamna, mais aujourd'hui les deux orthographes sont utilisées[1]. 
-Ces requins ont vécu de l’Aptien (Crétacé inférieur) jusqu'à l'Yprésien (Éocène inférieur), soit il y a environ entre 115 et 48 millions d’années)[2],[3]. Ses espèces sont considérées par beaucoup[Qui ?] comme les ancêtres de nombreuses espèces de requins lamniformes modernes (tels que le requin mako ou le grand requin blanc), et de requins fossiles comme les Cretoxyrhina, Squalicorax, Otodus ou Carcharocles (dont le Mégalodon).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'orthographe de Cretolamna est controversée, à l'origine Cretalamna, mais aujourd'hui les deux orthographes sont utilisées. 
+Ces requins ont vécu de l’Aptien (Crétacé inférieur) jusqu'à l'Yprésien (Éocène inférieur), soit il y a environ entre 115 et 48 millions d’années),. Ses espèces sont considérées par beaucoup[Qui ?] comme les ancêtres de nombreuses espèces de requins lamniformes modernes (tels que le requin mako ou le grand requin blanc), et de requins fossiles comme les Cretoxyrhina, Squalicorax, Otodus ou Carcharocles (dont le Mégalodon).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cretolamna était un genre répandu en Afrique du Nord (Maroc), au Proche-Orient (Jordanie)[4] et en Amérique du Nord sur la côte est et dans le Midwest. Les gisements au Maroc sont généralement datés de l'Éocène. En Jordanie, ils sont datés du Crétacé et de l'Éocène, tandis que la plupart des gisements aux États-Unis datent du Crétacé et du Paléocène[5]. C. maroccana était plus répandu au Maroc et en Jordanie, tandis que C. appendiculata était plus répandu aux États-Unis. Les deux espèces se sont chevauchées à un moment donné.[style à revoir]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cretolamna était un genre répandu en Afrique du Nord (Maroc), au Proche-Orient (Jordanie) et en Amérique du Nord sur la côte est et dans le Midwest. Les gisements au Maroc sont généralement datés de l'Éocène. En Jordanie, ils sont datés du Crétacé et de l'Éocène, tandis que la plupart des gisements aux États-Unis datent du Crétacé et du Paléocène. C. maroccana était plus répandu au Maroc et en Jordanie, tandis que C. appendiculata était plus répandu aux États-Unis. Les deux espèces se sont chevauchées à un moment donné.[style à revoir]
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (22 août 2019)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (22 août 2019) :
 Cretolamna appendiculata (Agassiz, 1843) †
 Cretolamna biauriculata (Wanner, 1902) †
 Cretolamna serrata (Agassiz, 1838) †
